--- a/Gantt chart Emart.xlsx
+++ b/Gantt chart Emart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7272E4C7-580C-4771-BDDA-9D8785F9E8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B4D497-2675-472B-A88F-794F677A7EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Task 3</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Login Module</t>
   </si>
   <si>
-    <t>Update Pass</t>
-  </si>
-  <si>
     <t>Namit</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>Web dev of login &amp; register</t>
+  </si>
+  <si>
+    <t>Products Module</t>
+  </si>
+  <si>
+    <t>Products Web Dev</t>
   </si>
 </sst>
 </file>
@@ -921,23 +924,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1505,18 +1508,18 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL36"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
@@ -1556,106 +1559,106 @@
       <c r="B3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="93">
-        <v>44519</v>
-      </c>
-      <c r="F3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="91">
+        <v>44522</v>
+      </c>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="90">
+      <c r="I4" s="88">
         <f>I5</f>
-        <v>44515</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="90">
+        <v>44522</v>
+      </c>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
-        <v>44522</v>
-      </c>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="91"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="90">
+        <v>44529</v>
+      </c>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
-        <v>44529</v>
-      </c>
-      <c r="X4" s="91"/>
-      <c r="Y4" s="91"/>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="90">
+        <v>44536</v>
+      </c>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
-        <v>44536</v>
-      </c>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="90">
+        <v>44543</v>
+      </c>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
-        <v>44543</v>
-      </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="92"/>
-      <c r="AR4" s="90">
+        <v>44550</v>
+      </c>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
-        <v>44550</v>
-      </c>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="90">
+        <v>44557</v>
+      </c>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
-        <v>44557</v>
-      </c>
-      <c r="AZ4" s="91"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="91"/>
-      <c r="BC4" s="91"/>
-      <c r="BD4" s="91"/>
-      <c r="BE4" s="92"/>
-      <c r="BF4" s="90">
+        <v>44564</v>
+      </c>
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
-        <v>44564</v>
-      </c>
-      <c r="BG4" s="91"/>
-      <c r="BH4" s="91"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="91"/>
-      <c r="BK4" s="91"/>
-      <c r="BL4" s="92"/>
+        <v>44571</v>
+      </c>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
@@ -1669,227 +1672,227 @@
       <c r="G5" s="84"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="J5" s="10">
         <f>I5+1</f>
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="L5" s="10">
         <f t="shared" si="0"/>
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="0"/>
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="N5" s="10">
         <f t="shared" si="0"/>
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="O5" s="12">
         <f t="shared" si="0"/>
-        <v>44521</v>
+        <v>44528</v>
       </c>
       <c r="P5" s="11">
         <f>O5+1</f>
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="Q5" s="10">
         <f>P5+1</f>
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="R5" s="10">
         <f t="shared" si="0"/>
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="S5" s="10">
         <f t="shared" si="0"/>
-        <v>44525</v>
+        <v>44532</v>
       </c>
       <c r="T5" s="10">
         <f t="shared" si="0"/>
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="U5" s="10">
         <f t="shared" si="0"/>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="0"/>
-        <v>44528</v>
+        <v>44535</v>
       </c>
       <c r="W5" s="11">
         <f>V5+1</f>
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="X5" s="10">
         <f>W5+1</f>
-        <v>44530</v>
+        <v>44537</v>
       </c>
       <c r="Y5" s="10">
         <f t="shared" si="0"/>
-        <v>44531</v>
+        <v>44538</v>
       </c>
       <c r="Z5" s="10">
         <f t="shared" si="0"/>
-        <v>44532</v>
+        <v>44539</v>
       </c>
       <c r="AA5" s="10">
         <f t="shared" si="0"/>
-        <v>44533</v>
+        <v>44540</v>
       </c>
       <c r="AB5" s="10">
         <f t="shared" si="0"/>
-        <v>44534</v>
+        <v>44541</v>
       </c>
       <c r="AC5" s="12">
         <f t="shared" si="0"/>
-        <v>44535</v>
+        <v>44542</v>
       </c>
       <c r="AD5" s="11">
         <f>AC5+1</f>
-        <v>44536</v>
+        <v>44543</v>
       </c>
       <c r="AE5" s="10">
         <f>AD5+1</f>
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="AF5" s="10">
         <f t="shared" si="0"/>
-        <v>44538</v>
+        <v>44545</v>
       </c>
       <c r="AG5" s="10">
         <f t="shared" si="0"/>
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="AH5" s="10">
         <f t="shared" si="0"/>
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="AI5" s="10">
         <f t="shared" si="0"/>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="AJ5" s="12">
         <f t="shared" si="0"/>
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="AK5" s="11">
         <f>AJ5+1</f>
-        <v>44543</v>
+        <v>44550</v>
       </c>
       <c r="AL5" s="10">
         <f>AK5+1</f>
-        <v>44544</v>
+        <v>44551</v>
       </c>
       <c r="AM5" s="10">
         <f t="shared" si="0"/>
-        <v>44545</v>
+        <v>44552</v>
       </c>
       <c r="AN5" s="10">
         <f t="shared" si="0"/>
-        <v>44546</v>
+        <v>44553</v>
       </c>
       <c r="AO5" s="10">
         <f t="shared" si="0"/>
-        <v>44547</v>
+        <v>44554</v>
       </c>
       <c r="AP5" s="10">
         <f t="shared" si="0"/>
-        <v>44548</v>
+        <v>44555</v>
       </c>
       <c r="AQ5" s="12">
         <f t="shared" si="0"/>
-        <v>44549</v>
+        <v>44556</v>
       </c>
       <c r="AR5" s="11">
         <f>AQ5+1</f>
-        <v>44550</v>
+        <v>44557</v>
       </c>
       <c r="AS5" s="10">
         <f>AR5+1</f>
-        <v>44551</v>
+        <v>44558</v>
       </c>
       <c r="AT5" s="10">
         <f t="shared" si="0"/>
-        <v>44552</v>
+        <v>44559</v>
       </c>
       <c r="AU5" s="10">
         <f t="shared" si="0"/>
-        <v>44553</v>
+        <v>44560</v>
       </c>
       <c r="AV5" s="10">
         <f t="shared" si="0"/>
-        <v>44554</v>
+        <v>44561</v>
       </c>
       <c r="AW5" s="10">
         <f t="shared" si="0"/>
-        <v>44555</v>
+        <v>44562</v>
       </c>
       <c r="AX5" s="12">
         <f t="shared" si="0"/>
-        <v>44556</v>
+        <v>44563</v>
       </c>
       <c r="AY5" s="11">
         <f>AX5+1</f>
-        <v>44557</v>
+        <v>44564</v>
       </c>
       <c r="AZ5" s="10">
         <f>AY5+1</f>
-        <v>44558</v>
+        <v>44565</v>
       </c>
       <c r="BA5" s="10">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
-        <v>44559</v>
+        <v>44566</v>
       </c>
       <c r="BB5" s="10">
         <f t="shared" si="1"/>
-        <v>44560</v>
+        <v>44567</v>
       </c>
       <c r="BC5" s="10">
         <f t="shared" si="1"/>
-        <v>44561</v>
+        <v>44568</v>
       </c>
       <c r="BD5" s="10">
         <f t="shared" si="1"/>
-        <v>44562</v>
+        <v>44569</v>
       </c>
       <c r="BE5" s="12">
         <f t="shared" si="1"/>
-        <v>44563</v>
+        <v>44570</v>
       </c>
       <c r="BF5" s="11">
         <f>BE5+1</f>
-        <v>44564</v>
+        <v>44571</v>
       </c>
       <c r="BG5" s="10">
         <f>BF5+1</f>
-        <v>44565</v>
+        <v>44572</v>
       </c>
       <c r="BH5" s="10">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
-        <v>44566</v>
+        <v>44573</v>
       </c>
       <c r="BI5" s="10">
         <f t="shared" si="2"/>
-        <v>44567</v>
+        <v>44574</v>
       </c>
       <c r="BJ5" s="10">
         <f t="shared" si="2"/>
-        <v>44568</v>
+        <v>44575</v>
       </c>
       <c r="BK5" s="10">
         <f t="shared" si="2"/>
-        <v>44569</v>
+        <v>44576</v>
       </c>
       <c r="BL5" s="12">
         <f t="shared" si="2"/>
-        <v>44570</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2295,11 +2298,11 @@
       </c>
       <c r="E9" s="65">
         <f>Project_Start</f>
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="F9" s="65">
         <f>E9+1</f>
-        <v>44520</v>
+        <v>44523</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
@@ -2371,18 +2374,18 @@
         <v>52</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="22">
         <v>0.7</v>
       </c>
       <c r="E10" s="65">
         <f>Project_Start</f>
-        <v>44519</v>
+        <v>44522</v>
       </c>
       <c r="F10" s="65">
         <f>E10+2</f>
-        <v>44521</v>
+        <v>44524</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
@@ -2449,26 +2452,26 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58"/>
       <c r="B11" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="22">
         <v>0.2</v>
       </c>
       <c r="E11" s="65">
-        <f>Project_Start</f>
-        <v>44519</v>
+        <f>F9</f>
+        <v>44523</v>
       </c>
       <c r="F11" s="65">
-        <f>E11+4</f>
-        <v>44523</v>
+        <f>E11+2</f>
+        <v>44525</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2530,26 +2533,26 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="58"/>
       <c r="B12" s="79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="71" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="65">
-        <f>F11</f>
-        <v>44523</v>
+        <f>F10+1</f>
+        <v>44525</v>
       </c>
       <c r="F12" s="65">
-        <f>E12+3</f>
-        <v>44526</v>
+        <f>E12+2</f>
+        <v>44527</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2610,18 +2613,13 @@
     </row>
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="58"/>
-      <c r="B13" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="65">
-        <f>E10+7</f>
-        <v>44526</v>
-      </c>
-      <c r="F13" s="65"/>
+      <c r="B13" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="str">
         <f t="shared" si="6"/>
@@ -2688,17 +2686,27 @@
       <c r="A14" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1</v>
+      </c>
+      <c r="E14" s="65">
+        <f>F12+1</f>
+        <v>44528</v>
+      </c>
+      <c r="F14" s="65">
+        <f>E14+2</f>
+        <v>44530</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
+        <f t="shared" si="6"/>
         <v>3</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
@@ -2760,16 +2768,26 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59"/>
       <c r="B15" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="66">
+        <f>DATE(2021,11,29)</f>
+        <v>44529</v>
+      </c>
+      <c r="F15" s="66">
+        <f>DATE(2021,12,2)</f>
+        <v>44532</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17">
+        <f t="shared" si="6"/>
         <v>4</v>
-      </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
@@ -2831,7 +2849,7 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="58"/>
       <c r="B16" s="80" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16" s="73"/>
       <c r="D16" s="27"/>
@@ -2902,7 +2920,7 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="58"/>
       <c r="B17" s="80" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="73"/>
       <c r="D17" s="27"/>
@@ -2973,7 +2991,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="58"/>
       <c r="B18" s="80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="27"/>
@@ -3043,13 +3061,13 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="58"/>
-      <c r="B19" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="B19" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3116,13 +3134,13 @@
       <c r="A20" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
+      <c r="B20" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3188,7 +3206,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="58"/>
       <c r="B21" s="81" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="32"/>
@@ -3259,7 +3277,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="58"/>
       <c r="B22" s="81" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22" s="75"/>
       <c r="D22" s="32"/>
@@ -3330,7 +3348,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="58"/>
       <c r="B23" s="81" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="75"/>
       <c r="D23" s="32"/>
@@ -3401,7 +3419,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="58"/>
       <c r="B24" s="81" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="75"/>
       <c r="D24" s="32"/>
@@ -3471,13 +3489,13 @@
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="58"/>
-      <c r="B25" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="B25" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17" t="str">
         <f t="shared" si="6"/>
@@ -3544,17 +3562,21 @@
       <c r="A26" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="77"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>33</v>
+      </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="17" t="str">
+      <c r="H26" s="17" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
@@ -3616,7 +3638,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="58"/>
       <c r="B27" s="82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="77"/>
       <c r="D27" s="37"/>
@@ -3691,7 +3713,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="58"/>
       <c r="B28" s="82" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C28" s="77"/>
       <c r="D28" s="37"/>
@@ -3766,7 +3788,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="58"/>
       <c r="B29" s="82" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="77"/>
       <c r="D29" s="37"/>
@@ -3841,7 +3863,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="58"/>
       <c r="B30" s="82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="77"/>
       <c r="D30" s="37"/>
@@ -3915,21 +3937,15 @@
     </row>
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="58"/>
-      <c r="B31" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="68" t="s">
-        <v>33</v>
-      </c>
+      <c r="B31" s="83"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
+      <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -3992,11 +4008,13 @@
       <c r="A32" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
+      <c r="B32" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17" t="str">
         <f t="shared" si="6"/>
@@ -4063,13 +4081,11 @@
       <c r="A33" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="42"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="5"/>
+      <c r="F33"/>
       <c r="G33" s="43"/>
       <c r="H33" s="43" t="str">
         <f t="shared" si="6"/>
@@ -4133,30 +4149,28 @@
       <c r="BL33" s="46"/>
     </row>
     <row r="34" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="14"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="14"/>
-      <c r="F35" s="60"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="15"/>
+      <c r="C35" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D33">
+  <conditionalFormatting sqref="D7:D32">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4210,7 +4224,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D33</xm:sqref>
+          <xm:sqref>D7:D32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
